--- a/data/overview.xlsx
+++ b/data/overview.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00B4555-0E6A-428E-A810-7B6DED559A36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9FA34A-0FA5-4A79-BE51-375A19718714}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Method</t>
   </si>
   <si>
     <t>Lower Limit - q</t>
-  </si>
-  <si>
-    <t>Upper Limit - q</t>
   </si>
   <si>
     <t>Author(s) + Year</t>
@@ -52,19 +51,10 @@
     <t>Upper Limit - Separation (AU)</t>
   </si>
   <si>
-    <t>2.7642&lt;sep&lt;26.46, .6&lt;q&lt;1</t>
-  </si>
-  <si>
-    <t>.0363&lt;sep&lt;.7976, .6&lt;q&lt;1</t>
-  </si>
-  <si>
     <t>Janson et. al. 2012</t>
   </si>
   <si>
     <t>Constrained Frequency</t>
-  </si>
-  <si>
-    <t>Frequency Constraint</t>
   </si>
   <si>
     <t>Reported Frequency</t>
@@ -79,26 +69,26 @@
     <t>.27 +/- .03</t>
   </si>
   <si>
-    <t>Other Notes</t>
-  </si>
-  <si>
-    <t>sep&gt;1"</t>
-  </si>
-  <si>
     <t>.167 +/-.02</t>
   </si>
   <si>
     <t>Fischer &amp; Marcy 1992</t>
   </si>
   <si>
-    <t>only part pf paper with data shared</t>
+    <t>Ward-Duong et. Al. 2015</t>
+  </si>
+  <si>
+    <t>Shvartzvald et. Al. 2016</t>
+  </si>
+  <si>
+    <t>ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +104,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2EFFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,14 +142,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,69 +443,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.265625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
+    <col min="7" max="7" width="22.265625" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
+    <col min="9" max="9" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2.7642000000000002</v>
@@ -491,28 +506,22 @@
       <c r="E2">
         <v>0.6</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="G2">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H2">
-        <v>6.9000000000000006E-2</v>
+        <v>490</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>490</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3.6299999999999999E-2</v>
@@ -523,48 +532,42 @@
       <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="G3">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>227</v>
       </c>
       <c r="E4">
         <v>0.4</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="H4">
         <v>761</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0.01</v>
@@ -575,18 +578,2184 @@
       <c r="E5">
         <v>0.01</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="H5">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B21A6C-ACF6-4DD4-8D1F-D514D197ABE9}">
+  <dimension ref="A1:A124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="5">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=1" xr:uid="{C69C99F9-6122-4817-9C12-BC84D1B148EB}"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=2" xr:uid="{65C51CA8-392E-49A5-BF5E-2D7156DC055D}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=3" xr:uid="{5300D213-CA8B-4B9D-B12F-A39F679EB49F}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=4" xr:uid="{F5C418AF-4137-4796-AE20-9B1071013684}"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=5" xr:uid="{7BE49FA2-1B64-4FAC-BFA7-EA4CE18BACB5}"/>
+    <hyperlink ref="A6" r:id="rId6" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=6" xr:uid="{B254C601-4683-40BB-978B-96D2DD336327}"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=7" xr:uid="{ED3AD969-31AF-4C24-8934-3EED1B5CEFF8}"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=8" xr:uid="{75DB8FAB-E418-4C5B-A5C5-B49B209D3723}"/>
+    <hyperlink ref="A9" r:id="rId9" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=9" xr:uid="{E7C32E19-DB10-4EF0-888C-EE5359600979}"/>
+    <hyperlink ref="A10" r:id="rId10" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=10" xr:uid="{906C2580-3274-4BE6-BA1D-71C9309F8BF1}"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=11" xr:uid="{B8E66788-6E3E-4479-9763-59728CE862A6}"/>
+    <hyperlink ref="A12" r:id="rId12" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=12" xr:uid="{E9423FE1-5384-4003-A8FB-B18741C44B3B}"/>
+    <hyperlink ref="A13" r:id="rId13" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=13" xr:uid="{4E5B58F6-B75F-454B-A6A7-B474157E059F}"/>
+    <hyperlink ref="A14" r:id="rId14" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=14" xr:uid="{B6787748-94D5-4687-9DF6-B00740ADE8AB}"/>
+    <hyperlink ref="A15" r:id="rId15" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=15" xr:uid="{25E44B7E-140D-441D-BFD3-04B61D86BC5A}"/>
+    <hyperlink ref="A16" r:id="rId16" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=16" xr:uid="{1E30B581-CD02-454B-B7DE-F9A3DA78F9DB}"/>
+    <hyperlink ref="A17" r:id="rId17" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=17" xr:uid="{96066575-581B-49BA-B74C-7CF100D8823A}"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=18" xr:uid="{64D6CE57-4E6C-430A-A40E-9789A741A409}"/>
+    <hyperlink ref="A19" r:id="rId19" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=19" xr:uid="{B2A626F5-984B-4B73-9A74-F19351F65D11}"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=20" xr:uid="{3743D700-07F1-4076-95A0-881399141189}"/>
+    <hyperlink ref="A21" r:id="rId21" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=21" xr:uid="{7D506858-9FEC-4023-8FAA-E2F75FA4FFC6}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=22" xr:uid="{2138614F-9B81-46CE-814D-4A8EBCB16C62}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=23" xr:uid="{CE749B1B-ABDA-4426-A142-5E7F13DDA7A9}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=24" xr:uid="{69004D7C-7D3F-4260-82A7-194CCFB0F1AC}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=25" xr:uid="{EC001288-5FDA-4CE0-999C-C5FB00859742}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=26" xr:uid="{FFF2E180-2F8E-46FD-8F2C-8F12F37929B0}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=27" xr:uid="{2EF8F0FB-D1B5-4FA6-B581-1CF2EE1C199A}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=28" xr:uid="{68CA4732-63FF-434A-8B65-9F154D552F5B}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=29" xr:uid="{6627BF0B-C27C-4783-A273-4C1237FB5138}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=30" xr:uid="{F01FA56F-1797-49F1-84CA-D1F4B8AB6F0F}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=31" xr:uid="{C7B6DEED-429E-427F-9613-8543ADD16D5C}"/>
+    <hyperlink ref="A32" r:id="rId32" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=32" xr:uid="{BE090258-54E9-47D0-9A70-7C662F7750B8}"/>
+    <hyperlink ref="A33" r:id="rId33" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=33" xr:uid="{9E3A2E04-29BF-4720-A02D-C4187B0BC03E}"/>
+    <hyperlink ref="A34" r:id="rId34" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=34" xr:uid="{BBF06804-C2D2-4C5C-8453-290FC3F16BEE}"/>
+    <hyperlink ref="A35" r:id="rId35" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=35" xr:uid="{B6B03C5E-A5DB-45C8-925E-C4F693EA7114}"/>
+    <hyperlink ref="A36" r:id="rId36" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=36" xr:uid="{32B22E34-0DC6-4B1A-90B9-4B8036706460}"/>
+    <hyperlink ref="A37" r:id="rId37" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=37" xr:uid="{EA693D05-9756-4FEA-A45E-7070878AB477}"/>
+    <hyperlink ref="A38" r:id="rId38" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=38" xr:uid="{BA5156A4-066C-4B16-ACF2-C16C0B4F9AE2}"/>
+    <hyperlink ref="A39" r:id="rId39" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=39" xr:uid="{06A4485A-9EA3-41A0-9B61-3F6D559F4E83}"/>
+    <hyperlink ref="A40" r:id="rId40" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=40" xr:uid="{323EF37F-8743-4575-9E53-C56B650C2CD2}"/>
+    <hyperlink ref="A41" r:id="rId41" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=41" xr:uid="{7AC1E268-A608-4CC3-ADBE-3967779D5525}"/>
+    <hyperlink ref="A42" r:id="rId42" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=42" xr:uid="{74DFCE7A-9B95-443D-A564-F731D7DE340A}"/>
+    <hyperlink ref="A43" r:id="rId43" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=43" xr:uid="{535A1DF5-334B-4654-B790-B0737791D3E6}"/>
+    <hyperlink ref="A44" r:id="rId44" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=44" xr:uid="{FFDA8DAF-8E18-4DC2-A188-1B76C406F42A}"/>
+    <hyperlink ref="A45" r:id="rId45" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=45" xr:uid="{D29E7FA8-8DC5-4454-8A12-8C4EBD208E8A}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=46" xr:uid="{9DEEC5A9-1064-41F2-BDAA-D42A02B9F323}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=47" xr:uid="{FC5B1444-0715-4F21-8C74-5BA9DD1A888C}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=48" xr:uid="{7092F9A8-A07D-4E9A-B537-A885C04205B8}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=49" xr:uid="{4FCF5FFD-CF9F-43BA-B41E-15F01C6DCF55}"/>
+    <hyperlink ref="A50" r:id="rId50" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=50" xr:uid="{3A473C00-3209-4238-B062-39D37419BDD9}"/>
+    <hyperlink ref="A51" r:id="rId51" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=51" xr:uid="{6981D3D8-D714-4F41-B10E-DAE06367155B}"/>
+    <hyperlink ref="A52" r:id="rId52" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=52" xr:uid="{E690789F-CD82-4924-894E-8844BF2ECDA6}"/>
+    <hyperlink ref="A53" r:id="rId53" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=53" xr:uid="{BA6E75DF-1E84-4037-88C7-CA9282F4AE46}"/>
+    <hyperlink ref="A54" r:id="rId54" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=54" xr:uid="{D9B91486-0735-4624-B772-A496DFB37CA0}"/>
+    <hyperlink ref="A55" r:id="rId55" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=55" xr:uid="{3ABE879C-BF57-4251-A8C2-E700E703964E}"/>
+    <hyperlink ref="A56" r:id="rId56" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=56" xr:uid="{7AAACA82-EE4E-4C89-9160-512AC5E0B1D6}"/>
+    <hyperlink ref="A57" r:id="rId57" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=57" xr:uid="{05AEF80E-95CA-4322-8FAC-98215AFCB0B7}"/>
+    <hyperlink ref="A58" r:id="rId58" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=58" xr:uid="{859EA5FB-9202-46B2-B9D1-D5323817E27A}"/>
+    <hyperlink ref="A59" r:id="rId59" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=59" xr:uid="{E8954B0A-0261-4EAB-B096-27E6AE35FA60}"/>
+    <hyperlink ref="A60" r:id="rId60" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=60" xr:uid="{D30E8995-D31C-494F-B452-6F563A5A6F70}"/>
+    <hyperlink ref="A61" r:id="rId61" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=61" xr:uid="{199722CB-C0C5-41A8-A923-1963E2692F2B}"/>
+    <hyperlink ref="A62" r:id="rId62" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=62" xr:uid="{856D6872-1F7E-4C0A-90CD-5BFD41CCC333}"/>
+    <hyperlink ref="A63" r:id="rId63" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=63" xr:uid="{10703BE3-3ADA-4679-8E6D-BF1EF0D441C0}"/>
+    <hyperlink ref="A64" r:id="rId64" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=64" xr:uid="{7F093871-859B-40A4-8CB6-12D342D6B794}"/>
+    <hyperlink ref="A65" r:id="rId65" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=65" xr:uid="{DE0A850E-4BC4-4BC7-BC93-576BA96E8ABD}"/>
+    <hyperlink ref="A66" r:id="rId66" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=66" xr:uid="{BC50ACC8-65E4-4829-8B5E-BCF875AA3842}"/>
+    <hyperlink ref="A67" r:id="rId67" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=67" xr:uid="{BAE17F90-3826-4C22-8EB6-721C495A84AF}"/>
+    <hyperlink ref="A68" r:id="rId68" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=68" xr:uid="{168ACEF5-A9F0-473F-8B7C-5860B06605F3}"/>
+    <hyperlink ref="A69" r:id="rId69" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=69" xr:uid="{AB9FDD3B-9BBD-492D-A259-26EF896F1150}"/>
+    <hyperlink ref="A70" r:id="rId70" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=70" xr:uid="{DEED44A5-81E4-4C3C-B48E-5AC56A873356}"/>
+    <hyperlink ref="A71" r:id="rId71" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=71" xr:uid="{5AA89F6D-CAB3-4E35-94DD-389FA709C7ED}"/>
+    <hyperlink ref="A72" r:id="rId72" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=72" xr:uid="{58890D1D-FDCE-4912-A016-35F458FA8357}"/>
+    <hyperlink ref="A73" r:id="rId73" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=73" xr:uid="{4EAAEEEE-1E9E-4C51-9002-729DC57F4E6A}"/>
+    <hyperlink ref="A74" r:id="rId74" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=74" xr:uid="{EF9A6753-D230-4E0A-9A13-9791CBC6F63E}"/>
+    <hyperlink ref="A75" r:id="rId75" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=75" xr:uid="{1977507C-92FD-4F5A-8232-8B2B86FD7AB5}"/>
+    <hyperlink ref="A76" r:id="rId76" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=76" xr:uid="{40248DE4-0DA6-4894-8F4E-47333341D150}"/>
+    <hyperlink ref="A77" r:id="rId77" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=77" xr:uid="{55E3D5CF-333A-4C28-9F11-AC32DE3A8060}"/>
+    <hyperlink ref="A78" r:id="rId78" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=78" xr:uid="{8405CC05-BD86-40EA-A277-DDACFE0FA6CB}"/>
+    <hyperlink ref="A79" r:id="rId79" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=79" xr:uid="{7E2E4514-A2E2-460E-B546-F662775F0C86}"/>
+    <hyperlink ref="A80" r:id="rId80" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=80" xr:uid="{B1A43B2E-F225-4914-8F3E-39B2AFACB9C3}"/>
+    <hyperlink ref="A81" r:id="rId81" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=81" xr:uid="{6FFB1908-13A0-4700-88A3-1AD88D005D99}"/>
+    <hyperlink ref="A82" r:id="rId82" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=82" xr:uid="{05FDC17A-AAB9-4A3A-A497-37F6F165B6CF}"/>
+    <hyperlink ref="A83" r:id="rId83" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=83" xr:uid="{BC00D62D-1574-4B7B-BDEA-734F386A4BEA}"/>
+    <hyperlink ref="A84" r:id="rId84" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=84" xr:uid="{A076E92A-2027-49B7-A513-9DEFE1F0E40C}"/>
+    <hyperlink ref="A85" r:id="rId85" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=85" xr:uid="{FD86D570-6C86-4F3B-9B39-3B8B80F565CF}"/>
+    <hyperlink ref="A86" r:id="rId86" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=86" xr:uid="{D92E6123-8462-4F59-8D02-C1879743C3BB}"/>
+    <hyperlink ref="A87" r:id="rId87" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=87" xr:uid="{0426FD8A-A6C4-41DF-B153-C7D02EC1358F}"/>
+    <hyperlink ref="A88" r:id="rId88" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=88" xr:uid="{AB231AE7-7379-43EE-90E2-4A8ACE1CEE87}"/>
+    <hyperlink ref="A89" r:id="rId89" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=89" xr:uid="{00887E6D-E363-443A-BF81-205B3CD7721A}"/>
+    <hyperlink ref="A90" r:id="rId90" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=90" xr:uid="{1549A52A-5D05-43AA-BFA4-B60709037A07}"/>
+    <hyperlink ref="A91" r:id="rId91" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=91" xr:uid="{C8D9F844-DF55-4A4B-8837-E8C085566FF6}"/>
+    <hyperlink ref="A92" r:id="rId92" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=92" xr:uid="{82462F02-DDEA-40D4-96E0-724D2FE0BB4D}"/>
+    <hyperlink ref="A93" r:id="rId93" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=93" xr:uid="{2C66356C-1C6D-405A-8C1E-F5ADDF357214}"/>
+    <hyperlink ref="A94" r:id="rId94" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=94" xr:uid="{B67E21D3-DB2D-44EB-BB06-F0A0B88BC0DE}"/>
+    <hyperlink ref="A95" r:id="rId95" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=95" xr:uid="{9F116ADA-65F1-444F-B087-2E6E13132993}"/>
+    <hyperlink ref="A96" r:id="rId96" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=96" xr:uid="{6ABC4665-8A1C-44FE-937D-9D90FB26AA76}"/>
+    <hyperlink ref="A97" r:id="rId97" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=97" xr:uid="{A871CC1D-8929-42E3-A31C-721E0C1537F5}"/>
+    <hyperlink ref="A98" r:id="rId98" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=98" xr:uid="{28157144-D204-4B95-A2BB-BD693F3A3E74}"/>
+    <hyperlink ref="A99" r:id="rId99" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=99" xr:uid="{7596F1B1-271E-49E2-A29E-9808C3E3FDC9}"/>
+    <hyperlink ref="A100" r:id="rId100" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=100" xr:uid="{6DD46AF4-50D2-42C0-9146-05095D9711C4}"/>
+    <hyperlink ref="A101" r:id="rId101" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=101" xr:uid="{5C08F136-C5FB-4D99-8618-E46BB70D9816}"/>
+    <hyperlink ref="A102" r:id="rId102" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=102" xr:uid="{8572086D-F08D-416E-854A-0B3FD9DE7AD1}"/>
+    <hyperlink ref="A103" r:id="rId103" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=103" xr:uid="{4444EB81-AEE2-4320-8622-EE7BE0316EF7}"/>
+    <hyperlink ref="A104" r:id="rId104" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=104" xr:uid="{1255FFCF-FFBB-453D-9F3A-1A9DEE4E9E64}"/>
+    <hyperlink ref="A105" r:id="rId105" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=105" xr:uid="{57DA79C9-F1E0-4080-BC2B-F83E9B993370}"/>
+    <hyperlink ref="A106" r:id="rId106" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=106" xr:uid="{2791312B-C40B-41EE-B5DF-AB67C8E151F3}"/>
+    <hyperlink ref="A107" r:id="rId107" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=107" xr:uid="{EF2A4CDD-94D1-4CE4-A939-55DBC25383F0}"/>
+    <hyperlink ref="A108" r:id="rId108" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=108" xr:uid="{C079C7BF-6FB8-4061-888E-6C59ABE5A33A}"/>
+    <hyperlink ref="A109" r:id="rId109" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=109" xr:uid="{5A4F7CB7-9F69-42B4-BD34-631B1D0B4DE1}"/>
+    <hyperlink ref="A110" r:id="rId110" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=110" xr:uid="{155CDF96-4707-47A1-AD42-11AFD95A2C9A}"/>
+    <hyperlink ref="A111" r:id="rId111" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=111" xr:uid="{2DADD3D7-0AE7-4B5F-BEC5-388E34D6D95C}"/>
+    <hyperlink ref="A112" r:id="rId112" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=112" xr:uid="{7A91E129-4A23-4529-90BD-EAFCA6EDD3D2}"/>
+    <hyperlink ref="A113" r:id="rId113" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=113" xr:uid="{67F47574-0ED7-42BB-AD7C-5C9DA1FC0488}"/>
+    <hyperlink ref="A114" r:id="rId114" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=114" xr:uid="{8A2947CF-D55D-47C7-8B56-DC183515043B}"/>
+    <hyperlink ref="A115" r:id="rId115" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=115" xr:uid="{113D4217-4E6B-464A-9AC6-D8A2D32CE5B3}"/>
+    <hyperlink ref="A116" r:id="rId116" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=116" xr:uid="{4725F842-8913-45CD-8311-2EFBF8A7BD96}"/>
+    <hyperlink ref="A117" r:id="rId117" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=117" xr:uid="{ED80B37D-3327-45D2-AF92-FCDCE760F0FE}"/>
+    <hyperlink ref="A118" r:id="rId118" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=118" xr:uid="{806D8162-A88C-4F3E-BADC-0FB423BEB811}"/>
+    <hyperlink ref="A119" r:id="rId119" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=119" xr:uid="{B6D0CD55-1F8B-40D4-82C6-E9D745A329FE}"/>
+    <hyperlink ref="A120" r:id="rId120" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=120" xr:uid="{D4A786BB-A7D1-438B-BB8E-E484FAA41F0C}"/>
+    <hyperlink ref="A121" r:id="rId121" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=121" xr:uid="{AE0AB95D-E614-49BD-9F50-E80AFA0C053D}"/>
+    <hyperlink ref="A122" r:id="rId122" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=122" xr:uid="{A9F5CD62-D3B3-4C55-A12D-70013A5C81C7}"/>
+    <hyperlink ref="A123" r:id="rId123" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=123" xr:uid="{3FA12DDF-DA41-4414-8002-0E32D468F48F}"/>
+    <hyperlink ref="A124" r:id="rId124" display="http://vizier.u-strasbg.fr/viz-bin/VizieR-5?-ref=VIZ5b3fad89390f&amp;-out.add=.&amp;-source=J/MNRAS/449/2618/table4&amp;recno=124" xr:uid="{7C1838A1-8BBD-41D8-92D0-91F53278D415}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId125"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B30B2A6-02F3-40A6-8B98-D0B07BB7BFCD}">
+  <dimension ref="A1:C124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:C124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>134.1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>2952</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>2943.5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>1511</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>1512.1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>97.2</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>81.2</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>83.1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>2208</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>2199.6</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>207.3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>209.4</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="4">
+        <v>456</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>451.5</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="4">
+        <v>7</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="4">
+        <v>113</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>114.2</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="4">
+        <v>110</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>106</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="4">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="4">
+        <v>1096</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>1091.8</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="4">
+        <v>147</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="4">
+        <v>1066</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>1071.7</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
+        <v>260</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="4">
+        <v>236.1</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
+        <v>7</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>123</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="4">
+        <v>106.2</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
+        <v>31</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>11</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>16</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>684</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="4">
+        <v>693.2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>41</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="4">
+        <v>37</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
+        <v>453</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="4">
+        <v>450.7</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>1440</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="4">
+        <v>1437.4</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="6">
+        <v>183</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="4">
+        <v>194.9</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="6">
+        <v>37</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="4">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
+        <v>1010.1</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="4">
+        <v>428</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="6">
+        <v>442.4</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="4">
+        <v>76</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
+        <v>619</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="4">
+        <v>621</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
+        <v>30</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="6">
+        <v>10</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="6">
+        <v>225</v>
+      </c>
+      <c r="B120" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="4">
+        <v>244.1</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B122" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="C122" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="4">
+        <v>32</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="B124" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>